--- a/docentes/Rosas Aguilar Claudia Leonor Estadisticos 2020.xlsx
+++ b/docentes/Rosas Aguilar Claudia Leonor Estadisticos 2020.xlsx
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
